--- a/www/IndicatorsPerCountry/Mexico_CopperProduction_TerritorialRef_1946_2012_CCode_484.xlsx
+++ b/www/IndicatorsPerCountry/Mexico_CopperProduction_TerritorialRef_1946_2012_CCode_484.xlsx
@@ -273,13 +273,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mexico_CopperProduction_TerritorialRef_1946_2012_CCode_484.xlsx
+++ b/www/IndicatorsPerCountry/Mexico_CopperProduction_TerritorialRef_1946_2012_CCode_484.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="115">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,211 +39,289 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>0.3</t>
   </si>
   <si>
+    <t>0.4</t>
+  </si>
+  <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>2.583</t>
-  </si>
-  <si>
-    <t>2.821</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>1.443</t>
-  </si>
-  <si>
-    <t>2.674</t>
-  </si>
-  <si>
-    <t>2.688</t>
-  </si>
-  <si>
-    <t>2.701</t>
-  </si>
-  <si>
-    <t>3.076</t>
-  </si>
-  <si>
-    <t>3.257</t>
-  </si>
-  <si>
-    <t>3.461</t>
-  </si>
-  <si>
-    <t>2.951</t>
-  </si>
-  <si>
-    <t>2.759</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>1.351</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>1.346</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>63.2</t>
+  </si>
+  <si>
+    <t>78.7</t>
+  </si>
+  <si>
+    <t>80.5</t>
+  </si>
+  <si>
+    <t>82.7</t>
+  </si>
+  <si>
+    <t>78.5</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>89.7</t>
+  </si>
+  <si>
+    <t>87.2</t>
+  </si>
+  <si>
+    <t>107.1</t>
+  </si>
+  <si>
+    <t>175.4</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>196.9</t>
+  </si>
+  <si>
+    <t>181.5</t>
+  </si>
+  <si>
+    <t>171.3</t>
+  </si>
+  <si>
+    <t>184.9</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>273.5</t>
+  </si>
+  <si>
+    <t>253.9</t>
+  </si>
+  <si>
+    <t>293.6</t>
+  </si>
+  <si>
+    <t>292.5</t>
+  </si>
+  <si>
+    <t>290.5</t>
+  </si>
+  <si>
+    <t>301.151</t>
+  </si>
+  <si>
+    <t>294.688</t>
+  </si>
+  <si>
+    <t>333.565</t>
+  </si>
+  <si>
+    <t>340.71</t>
+  </si>
+  <si>
+    <t>390.536</t>
+  </si>
+  <si>
+    <t>384.641</t>
+  </si>
+  <si>
+    <t>381.184</t>
+  </si>
+  <si>
+    <t>364.566</t>
+  </si>
+  <si>
+    <t>371.123</t>
+  </si>
+  <si>
+    <t>329.574</t>
+  </si>
+  <si>
+    <t>355.653</t>
+  </si>
+  <si>
+    <t>405.54</t>
+  </si>
+  <si>
+    <t>429.051</t>
+  </si>
+  <si>
+    <t>334.129</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>268.619</t>
+  </si>
+  <si>
+    <t>227.748</t>
+  </si>
+  <si>
+    <t>270.136</t>
+  </si>
+  <si>
+    <t>443.6</t>
+  </si>
+  <si>
+    <t>440</t>
   </si>
   <si>
     <t>Description</t>
@@ -2129,7 +2207,7 @@
         <v>1831.0</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -2146,7 +2224,7 @@
         <v>1832.0</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2163,7 +2241,7 @@
         <v>1833.0</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -2180,7 +2258,7 @@
         <v>1834.0</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
@@ -2197,7 +2275,7 @@
         <v>1835.0</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -2214,7 +2292,7 @@
         <v>1836.0</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -2231,7 +2309,7 @@
         <v>1837.0</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -2248,7 +2326,7 @@
         <v>1838.0</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -2265,7 +2343,7 @@
         <v>1839.0</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -2282,7 +2360,7 @@
         <v>1840.0</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -2299,7 +2377,7 @@
         <v>1841.0</v>
       </c>
       <c r="E116" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -2316,7 +2394,7 @@
         <v>1842.0</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -2333,7 +2411,7 @@
         <v>1843.0</v>
       </c>
       <c r="E118" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -2350,7 +2428,7 @@
         <v>1844.0</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2367,7 +2445,7 @@
         <v>1845.0</v>
       </c>
       <c r="E120" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -2384,7 +2462,7 @@
         <v>1846.0</v>
       </c>
       <c r="E121" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -2401,7 +2479,7 @@
         <v>1847.0</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2418,7 +2496,7 @@
         <v>1848.0</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -2435,7 +2513,7 @@
         <v>1849.0</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -2452,7 +2530,7 @@
         <v>1850.0</v>
       </c>
       <c r="E125" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -2469,7 +2547,7 @@
         <v>1851.0</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -2486,7 +2564,7 @@
         <v>1852.0</v>
       </c>
       <c r="E127" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -2503,7 +2581,7 @@
         <v>1853.0</v>
       </c>
       <c r="E128" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -2520,7 +2598,7 @@
         <v>1854.0</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -2537,7 +2615,7 @@
         <v>1855.0</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -2554,7 +2632,7 @@
         <v>1856.0</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
@@ -2571,7 +2649,7 @@
         <v>1857.0</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -2588,7 +2666,7 @@
         <v>1858.0</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -2605,7 +2683,7 @@
         <v>1859.0</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -2622,7 +2700,7 @@
         <v>1860.0</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -2639,7 +2717,7 @@
         <v>1861.0</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -2656,7 +2734,7 @@
         <v>1862.0</v>
       </c>
       <c r="E137" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -2673,7 +2751,7 @@
         <v>1863.0</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -2690,7 +2768,7 @@
         <v>1864.0</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
@@ -2707,7 +2785,7 @@
         <v>1865.0</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -2724,7 +2802,7 @@
         <v>1866.0</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -2741,7 +2819,7 @@
         <v>1867.0</v>
       </c>
       <c r="E142" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
@@ -2758,7 +2836,7 @@
         <v>1868.0</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
@@ -2775,7 +2853,7 @@
         <v>1869.0</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
@@ -2792,7 +2870,7 @@
         <v>1870.0</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
@@ -2979,7 +3057,7 @@
         <v>1881.0</v>
       </c>
       <c r="E156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
@@ -2996,7 +3074,7 @@
         <v>1882.0</v>
       </c>
       <c r="E157" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
@@ -3013,7 +3091,7 @@
         <v>1883.0</v>
       </c>
       <c r="E158" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
@@ -3030,7 +3108,7 @@
         <v>1884.0</v>
       </c>
       <c r="E159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -3047,7 +3125,7 @@
         <v>1885.0</v>
       </c>
       <c r="E160" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
@@ -3064,7 +3142,7 @@
         <v>1886.0</v>
       </c>
       <c r="E161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -3081,7 +3159,7 @@
         <v>1887.0</v>
       </c>
       <c r="E162" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163">
@@ -3098,7 +3176,7 @@
         <v>1888.0</v>
       </c>
       <c r="E163" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
@@ -3115,7 +3193,7 @@
         <v>1889.0</v>
       </c>
       <c r="E164" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
@@ -3132,7 +3210,7 @@
         <v>1890.0</v>
       </c>
       <c r="E165" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
@@ -3149,7 +3227,7 @@
         <v>1891.0</v>
       </c>
       <c r="E166" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -3166,7 +3244,7 @@
         <v>1892.0</v>
       </c>
       <c r="E167" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
@@ -3183,7 +3261,7 @@
         <v>1893.0</v>
       </c>
       <c r="E168" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
@@ -3200,7 +3278,7 @@
         <v>1894.0</v>
       </c>
       <c r="E169" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170">
@@ -3217,7 +3295,7 @@
         <v>1895.0</v>
       </c>
       <c r="E170" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171">
@@ -3234,7 +3312,7 @@
         <v>1896.0</v>
       </c>
       <c r="E171" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -3251,7 +3329,7 @@
         <v>1897.0</v>
       </c>
       <c r="E172" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173">
@@ -3268,7 +3346,7 @@
         <v>1898.0</v>
       </c>
       <c r="E173" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174">
@@ -3285,7 +3363,7 @@
         <v>1899.0</v>
       </c>
       <c r="E174" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175">
@@ -3302,7 +3380,7 @@
         <v>1900.0</v>
       </c>
       <c r="E175" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176">
@@ -3319,7 +3397,7 @@
         <v>1901.0</v>
       </c>
       <c r="E176" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177">
@@ -3336,7 +3414,7 @@
         <v>1902.0</v>
       </c>
       <c r="E177" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178">
@@ -3353,7 +3431,7 @@
         <v>1903.0</v>
       </c>
       <c r="E178" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179">
@@ -3370,7 +3448,7 @@
         <v>1904.0</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180">
@@ -3387,7 +3465,7 @@
         <v>1905.0</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181">
@@ -3404,7 +3482,7 @@
         <v>1906.0</v>
       </c>
       <c r="E181" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182">
@@ -3421,7 +3499,7 @@
         <v>1907.0</v>
       </c>
       <c r="E182" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183">
@@ -3438,7 +3516,7 @@
         <v>1908.0</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184">
@@ -3455,7 +3533,7 @@
         <v>1909.0</v>
       </c>
       <c r="E184" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185">
@@ -3472,7 +3550,7 @@
         <v>1910.0</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186">
@@ -3489,7 +3567,7 @@
         <v>1911.0</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187">
@@ -3506,7 +3584,7 @@
         <v>1912.0</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188">
@@ -3523,7 +3601,7 @@
         <v>1913.0</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="189">
@@ -3540,7 +3618,7 @@
         <v>1914.0</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190">
@@ -3557,7 +3635,7 @@
         <v>1915.0</v>
       </c>
       <c r="E190" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191">
@@ -3574,7 +3652,7 @@
         <v>1916.0</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192">
@@ -3591,7 +3669,7 @@
         <v>1917.0</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193">
@@ -3608,7 +3686,7 @@
         <v>1918.0</v>
       </c>
       <c r="E193" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194">
@@ -3625,7 +3703,7 @@
         <v>1919.0</v>
       </c>
       <c r="E194" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195">
@@ -3642,7 +3720,7 @@
         <v>1920.0</v>
       </c>
       <c r="E195" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196">
@@ -3659,7 +3737,7 @@
         <v>1921.0</v>
       </c>
       <c r="E196" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="197">
@@ -3676,7 +3754,7 @@
         <v>1922.0</v>
       </c>
       <c r="E197" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198">
@@ -3693,7 +3771,7 @@
         <v>1923.0</v>
       </c>
       <c r="E198" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -3710,7 +3788,7 @@
         <v>1924.0</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200">
@@ -3727,7 +3805,7 @@
         <v>1925.0</v>
       </c>
       <c r="E200" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="201">
@@ -3744,7 +3822,7 @@
         <v>1926.0</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202">
@@ -3761,7 +3839,7 @@
         <v>1927.0</v>
       </c>
       <c r="E202" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203">
@@ -3778,7 +3856,7 @@
         <v>1928.0</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204">
@@ -3795,7 +3873,7 @@
         <v>1929.0</v>
       </c>
       <c r="E204" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="205">
@@ -3812,7 +3890,7 @@
         <v>1930.0</v>
       </c>
       <c r="E205" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="206">
@@ -3829,7 +3907,7 @@
         <v>1931.0</v>
       </c>
       <c r="E206" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207">
@@ -3846,7 +3924,7 @@
         <v>1932.0</v>
       </c>
       <c r="E207" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="208">
@@ -3863,7 +3941,7 @@
         <v>1933.0</v>
       </c>
       <c r="E208" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209">
@@ -3880,7 +3958,7 @@
         <v>1934.0</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="210">
@@ -3897,7 +3975,7 @@
         <v>1935.0</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211">
@@ -3914,7 +3992,7 @@
         <v>1936.0</v>
       </c>
       <c r="E211" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212">
@@ -3931,7 +4009,7 @@
         <v>1937.0</v>
       </c>
       <c r="E212" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213">
@@ -3948,7 +4026,7 @@
         <v>1938.0</v>
       </c>
       <c r="E213" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="214">
@@ -3965,7 +4043,7 @@
         <v>1939.0</v>
       </c>
       <c r="E214" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="215">
@@ -3982,7 +4060,7 @@
         <v>1940.0</v>
       </c>
       <c r="E215" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216">
@@ -3999,7 +4077,7 @@
         <v>1941.0</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="217">
@@ -4016,7 +4094,7 @@
         <v>1942.0</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="218">
@@ -4050,7 +4128,7 @@
         <v>1944.0</v>
       </c>
       <c r="E219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="220">
@@ -4067,7 +4145,7 @@
         <v>1945.0</v>
       </c>
       <c r="E220" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="221">
@@ -4084,7 +4162,7 @@
         <v>1946.0</v>
       </c>
       <c r="E221" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="222">
@@ -4101,7 +4179,7 @@
         <v>1947.0</v>
       </c>
       <c r="E222" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="223">
@@ -4118,7 +4196,7 @@
         <v>1948.0</v>
       </c>
       <c r="E223" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="224">
@@ -4135,7 +4213,7 @@
         <v>1949.0</v>
       </c>
       <c r="E224" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225">
@@ -4152,7 +4230,7 @@
         <v>1950.0</v>
       </c>
       <c r="E225" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226">
@@ -4169,7 +4247,7 @@
         <v>1951.0</v>
       </c>
       <c r="E226" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="227">
@@ -4186,7 +4264,7 @@
         <v>1952.0</v>
       </c>
       <c r="E227" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228">
@@ -4203,7 +4281,7 @@
         <v>1953.0</v>
       </c>
       <c r="E228" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="229">
@@ -4220,7 +4298,7 @@
         <v>1954.0</v>
       </c>
       <c r="E229" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230">
@@ -4237,7 +4315,7 @@
         <v>1955.0</v>
       </c>
       <c r="E230" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231">
@@ -4254,7 +4332,7 @@
         <v>1956.0</v>
       </c>
       <c r="E231" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232">
@@ -4271,7 +4349,7 @@
         <v>1957.0</v>
       </c>
       <c r="E232" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="233">
@@ -4288,7 +4366,7 @@
         <v>1958.0</v>
       </c>
       <c r="E233" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234">
@@ -4305,7 +4383,7 @@
         <v>1959.0</v>
       </c>
       <c r="E234" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235">
@@ -4322,7 +4400,7 @@
         <v>1960.0</v>
       </c>
       <c r="E235" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236">
@@ -4339,7 +4417,7 @@
         <v>1961.0</v>
       </c>
       <c r="E236" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="237">
@@ -4356,7 +4434,7 @@
         <v>1962.0</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238">
@@ -4373,7 +4451,7 @@
         <v>1963.0</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239">
@@ -4390,7 +4468,7 @@
         <v>1964.0</v>
       </c>
       <c r="E239" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240">
@@ -4407,7 +4485,7 @@
         <v>1965.0</v>
       </c>
       <c r="E240" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="241">
@@ -4424,7 +4502,7 @@
         <v>1966.0</v>
       </c>
       <c r="E241" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242">
@@ -4458,7 +4536,7 @@
         <v>1968.0</v>
       </c>
       <c r="E243" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="244">
@@ -4475,7 +4553,7 @@
         <v>1969.0</v>
       </c>
       <c r="E244" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245">
@@ -4492,7 +4570,7 @@
         <v>1970.0</v>
       </c>
       <c r="E245" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="246">
@@ -4509,7 +4587,7 @@
         <v>1971.0</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="247">
@@ -4526,7 +4604,7 @@
         <v>1972.0</v>
       </c>
       <c r="E247" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="248">
@@ -4543,7 +4621,7 @@
         <v>1973.0</v>
       </c>
       <c r="E248" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="249">
@@ -4560,7 +4638,7 @@
         <v>1974.0</v>
       </c>
       <c r="E249" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="250">
@@ -4577,7 +4655,7 @@
         <v>1975.0</v>
       </c>
       <c r="E250" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="251">
@@ -4594,7 +4672,7 @@
         <v>1976.0</v>
       </c>
       <c r="E251" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="252">
@@ -4611,7 +4689,7 @@
         <v>1977.0</v>
       </c>
       <c r="E252" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="253">
@@ -4628,7 +4706,7 @@
         <v>1978.0</v>
       </c>
       <c r="E253" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="254">
@@ -4645,7 +4723,7 @@
         <v>1979.0</v>
       </c>
       <c r="E254" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="255">
@@ -4662,7 +4740,7 @@
         <v>1980.0</v>
       </c>
       <c r="E255" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256">
@@ -4679,7 +4757,7 @@
         <v>1981.0</v>
       </c>
       <c r="E256" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257">
@@ -4696,7 +4774,7 @@
         <v>1982.0</v>
       </c>
       <c r="E257" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="258">
@@ -4713,7 +4791,7 @@
         <v>1983.0</v>
       </c>
       <c r="E258" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259">
@@ -4730,7 +4808,7 @@
         <v>1984.0</v>
       </c>
       <c r="E259" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260">
@@ -4747,7 +4825,7 @@
         <v>1985.0</v>
       </c>
       <c r="E260" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261">
@@ -4764,7 +4842,7 @@
         <v>1986.0</v>
       </c>
       <c r="E261" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262">
@@ -4781,7 +4859,7 @@
         <v>1987.0</v>
       </c>
       <c r="E262" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263">
@@ -4798,7 +4876,7 @@
         <v>1988.0</v>
       </c>
       <c r="E263" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="264">
@@ -4815,7 +4893,7 @@
         <v>1989.0</v>
       </c>
       <c r="E264" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="265">
@@ -4832,7 +4910,7 @@
         <v>1990.0</v>
       </c>
       <c r="E265" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266">
@@ -4849,7 +4927,7 @@
         <v>1991.0</v>
       </c>
       <c r="E266" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267">
@@ -4866,7 +4944,7 @@
         <v>1992.0</v>
       </c>
       <c r="E267" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="268">
@@ -4883,7 +4961,7 @@
         <v>1993.0</v>
       </c>
       <c r="E268" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="269">
@@ -4900,7 +4978,7 @@
         <v>1994.0</v>
       </c>
       <c r="E269" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270">
@@ -4917,7 +4995,7 @@
         <v>1995.0</v>
       </c>
       <c r="E270" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="271">
@@ -4934,7 +5012,7 @@
         <v>1996.0</v>
       </c>
       <c r="E271" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272">
@@ -4951,7 +5029,7 @@
         <v>1997.0</v>
       </c>
       <c r="E272" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273">
@@ -4968,7 +5046,7 @@
         <v>1998.0</v>
       </c>
       <c r="E273" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="274">
@@ -4985,7 +5063,7 @@
         <v>1999.0</v>
       </c>
       <c r="E274" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="275">
@@ -5002,7 +5080,7 @@
         <v>2000.0</v>
       </c>
       <c r="E275" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276">
@@ -5019,7 +5097,7 @@
         <v>2001.0</v>
       </c>
       <c r="E276" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="277">
@@ -5036,7 +5114,7 @@
         <v>2002.0</v>
       </c>
       <c r="E277" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="278">
@@ -5053,7 +5131,7 @@
         <v>2003.0</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="279">
@@ -5070,7 +5148,7 @@
         <v>2004.0</v>
       </c>
       <c r="E279" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="280">
@@ -5087,7 +5165,7 @@
         <v>2005.0</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281">
@@ -5104,7 +5182,7 @@
         <v>2006.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282">
@@ -5121,7 +5199,7 @@
         <v>2007.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="283">
@@ -5138,7 +5216,7 @@
         <v>2008.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284">
@@ -5155,7 +5233,7 @@
         <v>2009.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285">
@@ -5172,7 +5250,7 @@
         <v>2010.0</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286">
@@ -5189,7 +5267,7 @@
         <v>2011.0</v>
       </c>
       <c r="E286" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="287">
@@ -5206,7 +5284,7 @@
         <v>2012.0</v>
       </c>
       <c r="E287" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5224,50 +5302,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
